--- a/Stock_Portfolio_tracker.xlsx
+++ b/Stock_Portfolio_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni Year 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5233087C-D8EE-46F1-BE48-1F699180B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA41679-E047-4A02-B059-194A1D6D813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{065AAFAF-1D15-4155-B0C4-C66196C571F0}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,9 +305,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -322,13 +319,108 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -2332,7 +2424,7 @@
     <v>4</v>
     <v>153.13</v>
     <v>75.605999999999995</v>
-    <v>1.9540999999999999</v>
+    <v>1.9487000000000001</v>
     <v>-1.76</v>
     <v>-6.0169999999999998E-3</v>
     <v>-1.5795E-2</v>
@@ -2354,7 +2446,7 @@
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
     <v>111.485</v>
-    <v>37.421799999999998</v>
+    <v>37.309100000000001</v>
     <v>111.43</v>
     <v>109.67</v>
     <v>109.01009999999999</v>
@@ -2386,7 +2478,7 @@
     <v>4</v>
     <v>260.10000000000002</v>
     <v>164.07499999999999</v>
-    <v>1.2613000000000001</v>
+    <v>1.2650999999999999</v>
     <v>-5.95</v>
     <v>-2.9380000000000001E-3</v>
     <v>-2.6579999999999999E-2</v>
@@ -2408,7 +2500,7 @@
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
     <v>221.67</v>
-    <v>31.352499999999999</v>
+    <v>31.2958</v>
     <v>223.85</v>
     <v>217.9</v>
     <v>217.25989999999999</v>
@@ -2460,7 +2552,7 @@
     <v>4</v>
     <v>468.35</v>
     <v>376.91</v>
-    <v>0.9899</v>
+    <v>0.99260000000000004</v>
     <v>-11.78</v>
     <v>-2.7980000000000001E-3</v>
     <v>-3.0159999999999999E-2</v>
@@ -2515,7 +2607,7 @@
     <v>4</v>
     <v>242.52</v>
     <v>151.61000000000001</v>
-    <v>1.3768</v>
+    <v>1.3832</v>
     <v>-8.64</v>
     <v>-3.6319999999999999E-4</v>
     <v>-4.2908000000000002E-2</v>
@@ -3031,41 +3123,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AE1857B-6664-4A2E-8F31-9F1F4FFA2943}" name="Table1" displayName="Table1" ref="B3:N7" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AE1857B-6664-4A2E-8F31-9F1F4FFA2943}" name="Table1" displayName="Table1" ref="B3:N7" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F32F103F-AE8F-4EE4-A5DC-93F0F3CBC1BC}" name="Stocks" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{F32F103F-AE8F-4EE4-A5DC-93F0F3CBC1BC}" name="Stocks" dataDxfId="31">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F7B66C74-F28E-49D7-9722-68222D45EF14}" name="Ticker" dataDxfId="12">
+    <tableColumn id="14" xr3:uid="{F7B66C74-F28E-49D7-9722-68222D45EF14}" name="Ticker" dataDxfId="30">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{896B56BB-408C-4423-A66D-93CBE0FF50E4}" name="Price" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{896B56BB-408C-4423-A66D-93CBE0FF50E4}" name="Price" dataDxfId="29">
       <calculatedColumnFormula array="1">_FV( Table1[[#This Row],[Stocks]],"Price")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{DE504014-EC1D-4E65-A6EC-0199F4D420D5}" name="# of Shares"/>
-    <tableColumn id="4" xr3:uid="{72B95070-6D01-48C9-9183-C28F54D8E5D6}" name="Total Value" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{72B95070-6D01-48C9-9183-C28F54D8E5D6}" name="Total Value" dataDxfId="28">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],['# of Shares]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{68C284E4-E141-43C4-A6B6-84B20A22FD56}" name="Price Per Share Paid" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{57FF1193-4945-4D39-9360-FC39BF8CB162}" name="Total Cost" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{68C284E4-E141-43C4-A6B6-84B20A22FD56}" name="Price Per Share Paid" dataDxfId="27" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{57FF1193-4945-4D39-9360-FC39BF8CB162}" name="Total Cost" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[Price Per Share Paid]]*Table1[[#This Row],['# of Shares]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9E311971-43CA-4476-82A1-96B711F8A47E}" name="Total $ Gain/Loss" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{9E311971-43CA-4476-82A1-96B711F8A47E}" name="Total $ Gain/Loss" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[Total Value]]-Table1[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D2ECF6A0-6109-4D30-9745-3BC4945CB5C4}" name="Total % Gain/Loss" dataDxfId="6" dataCellStyle="Per cent">
+    <tableColumn id="8" xr3:uid="{D2ECF6A0-6109-4D30-9745-3BC4945CB5C4}" name="Total % Gain/Loss" dataDxfId="24" dataCellStyle="Per cent">
       <calculatedColumnFormula>Table1[[#This Row],[Total $ Gain/Loss]]/Table1[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{87BA7B33-2800-41C1-B310-DE34450D8DA7}" name="Daily $ Gain/Loss" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{87BA7B33-2800-41C1-B310-DE34450D8DA7}" name="Daily $ Gain/Loss" dataDxfId="23">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"Change")*Table1[[#This Row],['# of Shares]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5240E3C4-CBC4-4E14-AC20-3F45A32BC9A9}" name="Daily % Gain/Loss" dataDxfId="4" dataCellStyle="Per cent">
+    <tableColumn id="10" xr3:uid="{5240E3C4-CBC4-4E14-AC20-3F45A32BC9A9}" name="Daily % Gain/Loss" dataDxfId="22" dataCellStyle="Per cent">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B1D9EE51-C73F-48F1-934E-83F9B57CC88E}" name="52 week high" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{B1D9EE51-C73F-48F1-934E-83F9B57CC88E}" name="52 week high" dataDxfId="21">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F2EE4A4-9B7F-46D1-AB22-BE5B0C023E24}" name="52 week low" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{7F2EE4A4-9B7F-46D1-AB22-BE5B0C023E24}" name="52 week low" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Stocks]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3393,7 +3485,7 @@
   <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3415,21 +3507,21 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="26" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -3473,7 +3565,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="e" vm="1">
+      <c r="B4" s="17" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="3" t="str" cm="1">
@@ -3524,7 +3616,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="e" vm="2">
+      <c r="B5" s="17" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="3" t="str" cm="1">
@@ -3575,7 +3667,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="e" vm="3">
+      <c r="B6" s="17" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="3" t="str" cm="1">
@@ -3626,7 +3718,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="18" t="e" vm="4">
+      <c r="B7" s="17" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="3" t="str" cm="1">
@@ -3682,34 +3774,34 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="15">
+      <c r="E8" s="14"/>
+      <c r="F8" s="21">
         <f ca="1">SUM(Table1[Total Value])</f>
         <v>16905.37</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
         <f>SUM(Table1[Total Cost])</f>
         <v>9957</v>
       </c>
-      <c r="H8" s="16">
-        <f ca="1">E8-G8</f>
-        <v>6948.369999999999</v>
-      </c>
-      <c r="I8" s="17">
-        <f ca="1">E8/G8</f>
+      <c r="I8" s="22">
+        <f ca="1">SUM(Table1[Total $ Gain/Loss])</f>
+        <v>6948.37</v>
+      </c>
+      <c r="J8" s="16">
+        <f ca="1">F8/H8</f>
         <v>1.697837702119112</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="23">
         <f ca="1">SUM(Table1[Daily $ Gain/Loss])</f>
         <v>-549.94000000000005</v>
       </c>
-      <c r="K8" s="17">
-        <f ca="1">J8/(E8-J8)</f>
+      <c r="L8" s="16">
+        <f ca="1">K8/(F8-K8)</f>
         <v>-3.1505599155786983E-2</v>
       </c>
-      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
@@ -3718,11 +3810,24 @@
   <mergeCells count="1">
     <mergeCell ref="B2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:K8 I4:L7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="I8:K8 I4:L7">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L8">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
